--- a/Output/TestWing.xlsx
+++ b/Output/TestWing.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="18" uniqueCount="9">
   <si>
     <t xml:space="preserve">Aspect Ratio: </t>
   </si>

--- a/Output/TestWing.xlsx
+++ b/Output/TestWing.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="9">
   <si>
     <t xml:space="preserve">Aspect Ratio: </t>
   </si>

--- a/Output/TestWing.xlsx
+++ b/Output/TestWing.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Aspect Ratio: </t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t xml:space="preserve">Root Angle of Attack [°] for Zero Lift: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root Chord [m]: </t>
   </si>
 </sst>
 </file>
@@ -85,14 +88,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="true"/>
-    <col min="2" max="2" width="3.7109375" customWidth="true"/>
+    <col min="1" max="1" width="33.42578125" customWidth="true"/>
+    <col min="2" max="2" width="7.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -100,7 +103,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -108,7 +111,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -156,7 +159,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
+        <v>-1.1496</v>
       </c>
     </row>
     <row r="9">
@@ -164,7 +167,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0</v>
+        <v>-1.1496</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
